--- a/MechanicalTestingandAnalysis/Rae2020/Rae2020_DynamicExperiments.xlsx
+++ b/MechanicalTestingandAnalysis/Rae2020/Rae2020_DynamicExperiments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/MechanicalTestingandAnalysis/Rae2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED07B2-0CE0-E547-B4DA-360BE1B7F12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4985825-3724-F44F-BF32-4B004BE3D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1580" windowWidth="38400" windowHeight="21140" xr2:uid="{A5A5248E-395E-C045-8A49-5AF639A6E1B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21280" windowHeight="16420" xr2:uid="{A5A5248E-395E-C045-8A49-5AF639A6E1B0}"/>
   </bookViews>
   <sheets>
     <sheet name="SHPB" sheetId="3" r:id="rId1"/>
@@ -179,16 +179,16 @@
     <t>Max. Strain</t>
   </si>
   <si>
-    <t>Max. Long. Inertial Stress (Pa)</t>
-  </si>
-  <si>
-    <t>Max. Rad. Inertial Stress (Pa)</t>
-  </si>
-  <si>
-    <t>Max. Hoop Inertial Stress (Pa)</t>
-  </si>
-  <si>
     <t>Calculated Sample Mass (g)</t>
+  </si>
+  <si>
+    <t>Max. Long. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Rad. Inertial Stress (kPa)</t>
+  </si>
+  <si>
+    <t>Max. Hoop Inertial Stress (kPa)</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>41</v>
@@ -723,13 +723,13 @@
         <v>45</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
